--- a/biology/Botanique/Flavoparmelia/Flavoparmelia.xlsx
+++ b/biology/Botanique/Flavoparmelia/Flavoparmelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flavoparmelia est un genre de champignons lichénisés de la famille des Parmeliaceae, aux thalles foliacés. 
 Ils peuvent vivre sur un large éventail de surfaces, et se développer pour couvrir une superficie de la taille d'une assiette. On les trouve principalement sur les troncs d'arbres dans les bois.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre largement distribué contient 37 espèces : F. amplexa, F. baltimorensis, F. callichroa, F. caperata, F. caperatula, F. citrinescens, F. diffractaica, F. ecuadoriensis, F. euplecta, F. exornata, F. ferax, F. gerlachei, F. glomelliferica, F. haysomii, F. haywardiana, F. helmsii, F. kantvilasii, F. leucoxantha, F. marchantii, F. neuquenensis, F. norfolkensis, F. pachydactyla, F. papillosa, F. praesignis, F. proeuplecta, F. quichuaensis, F. rutidota, F. salazinica, F. scabrosina, F. secalonica, F. soredians, F. springtonensis, F. subambigua, F. subamplexa, F. subcapitata, F. succinprotocetrarica, F. virensica.
 			Flavoparmelia baltimorensis
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Larges lobes de couleur verte au-dessus, de couleur noire en dessous. 
 </t>
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre vient de 'flavus' en latin, qui signifie jaune, en référence à la couleur du thalle, le plus souvent d'un jaune-verdâtre lié à la présence d'acide usnique.
 Sur les autres projets Wikimedia :
